--- a/storage/app/templates/bir_2316.xlsx
+++ b/storage/app/templates/bir_2316.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\all files\NDC-HRIS\hris\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{136601AF-83BF-41D1-9B73-D7A70D94BAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F798951-DAEE-4507-A5AE-E47F9A1C11AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BIR2316" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$AN$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BIR2316'!$A$2:$AN$103</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1539,158 +1539,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1751,6 +1601,156 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13181,7 +13181,7 @@
   <dimension ref="A1:AN250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AN3"/>
+      <selection activeCell="A2" sqref="A2:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -13194,136 +13194,136 @@
   <sheetData>
     <row r="1" spans="1:40" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
     </row>
     <row r="3" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
     </row>
     <row r="4" spans="1:40" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="128"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
     </row>
     <row r="5" spans="1:40" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -13338,24 +13338,24 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="1"/>
@@ -13382,22 +13382,22 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="4"/>
@@ -13424,22 +13424,22 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="4"/>
@@ -13466,22 +13466,22 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="4"/>
@@ -13681,50 +13681,50 @@
       <c r="AN12" s="56"/>
     </row>
     <row r="13" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="88" t="s">
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="90"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142"/>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="142"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+      <c r="AD13" s="142"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="142"/>
+      <c r="AG13" s="142"/>
+      <c r="AH13" s="142"/>
+      <c r="AI13" s="142"/>
+      <c r="AJ13" s="142"/>
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="142"/>
+      <c r="AM13" s="142"/>
+      <c r="AN13" s="143"/>
     </row>
     <row r="14" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
@@ -13751,30 +13751,30 @@
       <c r="R14" s="48"/>
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
-      <c r="U14" s="91" t="s">
+      <c r="U14" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="77" t="s">
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="95"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="120"/>
     </row>
     <row r="15" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
@@ -13797,26 +13797,26 @@
       <c r="R15" s="51"/>
       <c r="S15" s="51"/>
       <c r="T15" s="52"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="96"/>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="97"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="111"/>
+      <c r="AL15" s="111"/>
+      <c r="AM15" s="111"/>
+      <c r="AN15" s="122"/>
     </row>
     <row r="16" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
@@ -13843,7 +13843,7 @@
       <c r="R16" s="48"/>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
-      <c r="U16" s="98">
+      <c r="U16" s="105">
         <v>29</v>
       </c>
       <c r="V16" s="63" t="s">
@@ -13889,7 +13889,7 @@
       <c r="R17" s="48"/>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
-      <c r="U17" s="98"/>
+      <c r="U17" s="105"/>
       <c r="V17" s="63" t="s">
         <v>90</v>
       </c>
@@ -13933,23 +13933,23 @@
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
       <c r="T18" s="52"/>
-      <c r="U18" s="103">
+      <c r="U18" s="107">
         <v>30</v>
       </c>
-      <c r="V18" s="96" t="s">
+      <c r="V18" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="96"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
       <c r="AH18" s="48"/>
       <c r="AI18" s="48"/>
       <c r="AJ18" s="48"/>
@@ -13983,19 +13983,19 @@
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="96"/>
-      <c r="AG19" s="96"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="111"/>
       <c r="AH19" s="48"/>
       <c r="AI19" s="48"/>
       <c r="AJ19" s="48"/>
@@ -14025,22 +14025,22 @@
       <c r="R20" s="48"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
-      <c r="U20" s="103">
+      <c r="U20" s="107">
         <v>31</v>
       </c>
-      <c r="V20" s="96" t="s">
+      <c r="V20" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="111"/>
       <c r="AG20" s="48"/>
       <c r="AH20" s="48"/>
       <c r="AI20" s="48"/>
@@ -14071,18 +14071,18 @@
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
       <c r="T21" s="52"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="111"/>
       <c r="AG21" s="48"/>
       <c r="AH21" s="48"/>
       <c r="AI21" s="48"/>
@@ -14093,42 +14093,42 @@
       <c r="AN21" s="56"/>
     </row>
     <row r="22" spans="1:40" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77" t="s">
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="96"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="111"/>
       <c r="AG22" s="48"/>
       <c r="AH22" s="48"/>
       <c r="AI22" s="48"/>
@@ -14139,42 +14139,42 @@
       <c r="AN22" s="56"/>
     </row>
     <row r="23" spans="1:40" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="103">
+      <c r="A23" s="121"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="107">
         <v>32</v>
       </c>
-      <c r="V23" s="96" t="s">
+      <c r="V23" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
       <c r="AG23" s="48"/>
       <c r="AH23" s="48"/>
       <c r="AI23" s="48"/>
@@ -14205,18 +14205,18 @@
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="96"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
       <c r="AG24" s="48"/>
       <c r="AH24" s="48"/>
       <c r="AI24" s="48"/>
@@ -14247,18 +14247,18 @@
       <c r="R25" s="51"/>
       <c r="S25" s="51"/>
       <c r="T25" s="52"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="111"/>
       <c r="AG25" s="48"/>
       <c r="AH25" s="48"/>
       <c r="AI25" s="48"/>
@@ -14291,22 +14291,22 @@
       <c r="R26" s="48"/>
       <c r="S26" s="48"/>
       <c r="T26" s="48"/>
-      <c r="U26" s="103">
+      <c r="U26" s="107">
         <v>33</v>
       </c>
-      <c r="V26" s="96" t="s">
+      <c r="V26" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="96"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="111"/>
       <c r="AG26" s="48"/>
       <c r="AH26" s="48"/>
       <c r="AI26" s="48"/>
@@ -14337,18 +14337,18 @@
       <c r="R27" s="48"/>
       <c r="S27" s="48"/>
       <c r="T27" s="48"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="96"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
       <c r="AG27" s="48"/>
       <c r="AH27" s="48"/>
       <c r="AI27" s="48"/>
@@ -14379,22 +14379,22 @@
       <c r="R28" s="51"/>
       <c r="S28" s="51"/>
       <c r="T28" s="52"/>
-      <c r="U28" s="98">
+      <c r="U28" s="105">
         <v>34</v>
       </c>
-      <c r="V28" s="104" t="s">
+      <c r="V28" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="105"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="105"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="117"/>
       <c r="AG28" s="48"/>
       <c r="AH28" s="48"/>
       <c r="AI28" s="48"/>
@@ -14429,18 +14429,18 @@
       <c r="R29" s="48"/>
       <c r="S29" s="48"/>
       <c r="T29" s="48"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="105"/>
-      <c r="AD29" s="105"/>
-      <c r="AE29" s="105"/>
-      <c r="AF29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="117"/>
       <c r="AG29" s="48"/>
       <c r="AH29" s="48"/>
       <c r="AI29" s="48"/>
@@ -14471,22 +14471,22 @@
       <c r="R30" s="48"/>
       <c r="S30" s="48"/>
       <c r="T30" s="56"/>
-      <c r="U30" s="103">
+      <c r="U30" s="107">
         <v>35</v>
       </c>
-      <c r="V30" s="96" t="s">
+      <c r="V30" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="96"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
       <c r="AG30" s="48"/>
       <c r="AH30" s="48"/>
       <c r="AI30" s="48"/>
@@ -14517,18 +14517,18 @@
       <c r="R31" s="51"/>
       <c r="S31" s="51"/>
       <c r="T31" s="52"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="96"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
       <c r="AG31" s="48"/>
       <c r="AH31" s="48"/>
       <c r="AI31" s="48"/>
@@ -14539,40 +14539,40 @@
       <c r="AN31" s="56"/>
     </row>
     <row r="32" spans="1:40" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="96"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
       <c r="AG32" s="48"/>
       <c r="AH32" s="48"/>
       <c r="AI32" s="48"/>
@@ -14583,43 +14583,43 @@
       <c r="AN32" s="56"/>
     </row>
     <row r="33" spans="1:40" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="98">
+      <c r="A33" s="121"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="105">
         <v>36</v>
       </c>
-      <c r="V33" s="106" t="s">
+      <c r="V33" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="106"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="106"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="106"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
       <c r="AH33" s="48"/>
       <c r="AI33" s="48"/>
       <c r="AJ33" s="48"/>
@@ -14629,39 +14629,39 @@
       <c r="AN33" s="56"/>
     </row>
     <row r="34" spans="1:40" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="98"/>
-      <c r="V34" s="106"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="106"/>
-      <c r="AD34" s="106"/>
-      <c r="AE34" s="106"/>
-      <c r="AF34" s="106"/>
-      <c r="AG34" s="106"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="124"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="124"/>
+      <c r="P34" s="124"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="124"/>
+      <c r="S34" s="124"/>
+      <c r="T34" s="125"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="108"/>
+      <c r="AG34" s="108"/>
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
       <c r="AJ34" s="48"/>
@@ -14671,41 +14671,41 @@
       <c r="AN34" s="56"/>
     </row>
     <row r="35" spans="1:40" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="98"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
-      <c r="AA35" s="106"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="106"/>
-      <c r="AD35" s="106"/>
-      <c r="AE35" s="106"/>
-      <c r="AF35" s="106"/>
-      <c r="AG35" s="106"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="120"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="108"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="108"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="108"/>
+      <c r="AE35" s="108"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="108"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
       <c r="AJ35" s="48"/>
@@ -14715,42 +14715,42 @@
       <c r="AN35" s="56"/>
     </row>
     <row r="36" spans="1:40" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="103">
+      <c r="A36" s="121"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="122"/>
+      <c r="U36" s="107">
         <v>37</v>
       </c>
-      <c r="V36" s="96" t="s">
+      <c r="V36" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="111"/>
+      <c r="AB36" s="111"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="111"/>
+      <c r="AF36" s="111"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
@@ -14761,38 +14761,38 @@
       <c r="AN36" s="56"/>
     </row>
     <row r="37" spans="1:40" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="101"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="96"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="124"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="124"/>
+      <c r="S37" s="124"/>
+      <c r="T37" s="125"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="111"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
       <c r="AG37" s="48"/>
       <c r="AH37" s="48"/>
       <c r="AI37" s="48"/>
@@ -14803,7 +14803,7 @@
       <c r="AN37" s="56"/>
     </row>
     <row r="38" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81">
+      <c r="A38" s="134">
         <v>11</v>
       </c>
       <c r="B38" s="58"/>
@@ -14827,18 +14827,18 @@
       <c r="R38" s="58"/>
       <c r="S38" s="58"/>
       <c r="T38" s="59"/>
-      <c r="U38" s="103"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
-      <c r="AB38" s="96"/>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="96"/>
-      <c r="AE38" s="96"/>
-      <c r="AF38" s="96"/>
+      <c r="U38" s="107"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
       <c r="AG38" s="48"/>
       <c r="AH38" s="48"/>
       <c r="AI38" s="48"/>
@@ -14849,7 +14849,7 @@
       <c r="AN38" s="56"/>
     </row>
     <row r="39" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51" t="s">
         <v>34</v>
@@ -14871,7 +14871,7 @@
       <c r="R39" s="51"/>
       <c r="S39" s="51"/>
       <c r="T39" s="52"/>
-      <c r="U39" s="98">
+      <c r="U39" s="105">
         <v>38</v>
       </c>
       <c r="V39" s="70" t="s">
@@ -14897,29 +14897,29 @@
       <c r="AN39" s="56"/>
     </row>
     <row r="40" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="S40" s="84"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="98"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="137"/>
+      <c r="P40" s="137"/>
+      <c r="Q40" s="137"/>
+      <c r="R40" s="137"/>
+      <c r="S40" s="137"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="105"/>
       <c r="V40" s="70" t="s">
         <v>110</v>
       </c>
@@ -14967,28 +14967,28 @@
       <c r="R41" s="48"/>
       <c r="S41" s="48"/>
       <c r="T41" s="48"/>
-      <c r="U41" s="93" t="s">
+      <c r="U41" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="94"/>
-      <c r="AA41" s="94"/>
-      <c r="AB41" s="94"/>
-      <c r="AC41" s="94"/>
-      <c r="AD41" s="94"/>
-      <c r="AE41" s="94"/>
-      <c r="AF41" s="94"/>
-      <c r="AG41" s="94"/>
-      <c r="AH41" s="94"/>
-      <c r="AI41" s="94"/>
-      <c r="AJ41" s="94"/>
-      <c r="AK41" s="94"/>
-      <c r="AL41" s="94"/>
-      <c r="AM41" s="94"/>
-      <c r="AN41" s="107"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="114"/>
+      <c r="Y41" s="114"/>
+      <c r="Z41" s="114"/>
+      <c r="AA41" s="114"/>
+      <c r="AB41" s="114"/>
+      <c r="AC41" s="114"/>
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="114"/>
+      <c r="AF41" s="114"/>
+      <c r="AG41" s="114"/>
+      <c r="AH41" s="114"/>
+      <c r="AI41" s="114"/>
+      <c r="AJ41" s="114"/>
+      <c r="AK41" s="114"/>
+      <c r="AL41" s="114"/>
+      <c r="AM41" s="114"/>
+      <c r="AN41" s="115"/>
     </row>
     <row r="42" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50"/>
@@ -15011,26 +15011,26 @@
       <c r="R42" s="51"/>
       <c r="S42" s="51"/>
       <c r="T42" s="52"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
-      <c r="AB42" s="94"/>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="94"/>
-      <c r="AE42" s="94"/>
-      <c r="AF42" s="94"/>
-      <c r="AG42" s="94"/>
-      <c r="AH42" s="94"/>
-      <c r="AI42" s="94"/>
-      <c r="AJ42" s="94"/>
-      <c r="AK42" s="94"/>
-      <c r="AL42" s="94"/>
-      <c r="AM42" s="94"/>
-      <c r="AN42" s="107"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="114"/>
+      <c r="AG42" s="114"/>
+      <c r="AH42" s="114"/>
+      <c r="AI42" s="114"/>
+      <c r="AJ42" s="114"/>
+      <c r="AK42" s="114"/>
+      <c r="AL42" s="114"/>
+      <c r="AM42" s="114"/>
+      <c r="AN42" s="115"/>
     </row>
     <row r="43" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
@@ -15055,22 +15055,22 @@
       <c r="R43" s="48"/>
       <c r="S43" s="48"/>
       <c r="T43" s="48"/>
-      <c r="U43" s="103">
+      <c r="U43" s="107">
         <v>39</v>
       </c>
-      <c r="V43" s="96" t="s">
+      <c r="V43" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="W43" s="96"/>
-      <c r="X43" s="96"/>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="96"/>
-      <c r="AE43" s="96"/>
-      <c r="AF43" s="96"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="111"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
+      <c r="AF43" s="111"/>
       <c r="AG43" s="48"/>
       <c r="AH43" s="48"/>
       <c r="AI43" s="48"/>
@@ -15101,18 +15101,18 @@
       <c r="R44" s="48"/>
       <c r="S44" s="48"/>
       <c r="T44" s="48"/>
-      <c r="U44" s="103"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="96"/>
-      <c r="AC44" s="96"/>
-      <c r="AD44" s="96"/>
-      <c r="AE44" s="96"/>
-      <c r="AF44" s="96"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
+      <c r="Z44" s="111"/>
+      <c r="AA44" s="111"/>
+      <c r="AB44" s="111"/>
+      <c r="AC44" s="111"/>
+      <c r="AD44" s="111"/>
+      <c r="AE44" s="111"/>
+      <c r="AF44" s="111"/>
       <c r="AG44" s="48"/>
       <c r="AH44" s="48"/>
       <c r="AI44" s="48"/>
@@ -15143,22 +15143,22 @@
       <c r="R45" s="51"/>
       <c r="S45" s="51"/>
       <c r="T45" s="52"/>
-      <c r="U45" s="103">
+      <c r="U45" s="107">
         <v>40</v>
       </c>
-      <c r="V45" s="96" t="s">
+      <c r="V45" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="96"/>
-      <c r="AF45" s="96"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="111"/>
+      <c r="AC45" s="111"/>
+      <c r="AD45" s="111"/>
+      <c r="AE45" s="111"/>
+      <c r="AF45" s="111"/>
       <c r="AG45" s="48"/>
       <c r="AH45" s="48"/>
       <c r="AI45" s="48"/>
@@ -15193,18 +15193,18 @@
       <c r="R46" s="48"/>
       <c r="S46" s="48"/>
       <c r="T46" s="48"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="96"/>
-      <c r="AC46" s="96"/>
-      <c r="AD46" s="96"/>
-      <c r="AE46" s="96"/>
-      <c r="AF46" s="96"/>
+      <c r="U46" s="107"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
+      <c r="Z46" s="111"/>
+      <c r="AA46" s="111"/>
+      <c r="AB46" s="111"/>
+      <c r="AC46" s="111"/>
+      <c r="AD46" s="111"/>
+      <c r="AE46" s="111"/>
+      <c r="AF46" s="111"/>
       <c r="AG46" s="48"/>
       <c r="AH46" s="48"/>
       <c r="AI46" s="48"/>
@@ -15235,22 +15235,22 @@
       <c r="R47" s="48"/>
       <c r="S47" s="48"/>
       <c r="T47" s="48"/>
-      <c r="U47" s="103">
+      <c r="U47" s="107">
         <v>41</v>
       </c>
-      <c r="V47" s="96" t="s">
+      <c r="V47" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="W47" s="96"/>
-      <c r="X47" s="96"/>
-      <c r="Y47" s="96"/>
-      <c r="Z47" s="96"/>
-      <c r="AA47" s="96"/>
-      <c r="AB47" s="96"/>
-      <c r="AC47" s="96"/>
-      <c r="AD47" s="96"/>
-      <c r="AE47" s="96"/>
-      <c r="AF47" s="96"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
+      <c r="Z47" s="111"/>
+      <c r="AA47" s="111"/>
+      <c r="AB47" s="111"/>
+      <c r="AC47" s="111"/>
+      <c r="AD47" s="111"/>
+      <c r="AE47" s="111"/>
+      <c r="AF47" s="111"/>
       <c r="AG47" s="48"/>
       <c r="AH47" s="48"/>
       <c r="AI47" s="48"/>
@@ -15281,18 +15281,18 @@
       <c r="R48" s="51"/>
       <c r="S48" s="51"/>
       <c r="T48" s="52"/>
-      <c r="U48" s="103"/>
-      <c r="V48" s="96"/>
-      <c r="W48" s="96"/>
-      <c r="X48" s="96"/>
-      <c r="Y48" s="96"/>
-      <c r="Z48" s="96"/>
-      <c r="AA48" s="96"/>
-      <c r="AB48" s="96"/>
-      <c r="AC48" s="96"/>
-      <c r="AD48" s="96"/>
-      <c r="AE48" s="96"/>
-      <c r="AF48" s="96"/>
+      <c r="U48" s="107"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="111"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="111"/>
+      <c r="Z48" s="111"/>
+      <c r="AA48" s="111"/>
+      <c r="AB48" s="111"/>
+      <c r="AC48" s="111"/>
+      <c r="AD48" s="111"/>
+      <c r="AE48" s="111"/>
+      <c r="AF48" s="111"/>
       <c r="AG48" s="48"/>
       <c r="AH48" s="48"/>
       <c r="AI48" s="48"/>
@@ -15303,46 +15303,46 @@
       <c r="AN48" s="56"/>
     </row>
     <row r="49" spans="1:40" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75">
+      <c r="A49" s="130">
         <v>15</v>
       </c>
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
       <c r="G49" s="58"/>
-      <c r="H49" s="77" t="s">
+      <c r="H49" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
       <c r="L49" s="58"/>
       <c r="M49" s="58"/>
-      <c r="N49" s="77" t="s">
+      <c r="N49" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="77"/>
-      <c r="S49" s="77"/>
+      <c r="O49" s="119"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="119"/>
+      <c r="R49" s="119"/>
+      <c r="S49" s="119"/>
       <c r="T49" s="59"/>
-      <c r="U49" s="103"/>
-      <c r="V49" s="96"/>
-      <c r="W49" s="96"/>
-      <c r="X49" s="96"/>
-      <c r="Y49" s="96"/>
-      <c r="Z49" s="96"/>
-      <c r="AA49" s="96"/>
-      <c r="AB49" s="96"/>
-      <c r="AC49" s="96"/>
-      <c r="AD49" s="96"/>
-      <c r="AE49" s="96"/>
-      <c r="AF49" s="96"/>
+      <c r="U49" s="107"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
+      <c r="Z49" s="111"/>
+      <c r="AA49" s="111"/>
+      <c r="AB49" s="111"/>
+      <c r="AC49" s="111"/>
+      <c r="AD49" s="111"/>
+      <c r="AE49" s="111"/>
+      <c r="AF49" s="111"/>
       <c r="AG49" s="48"/>
       <c r="AH49" s="48"/>
       <c r="AI49" s="48"/>
@@ -15353,42 +15353,42 @@
       <c r="AN49" s="56"/>
     </row>
     <row r="50" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
       <c r="G50" s="51"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
       <c r="L50" s="51"/>
       <c r="M50" s="51"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
+      <c r="N50" s="124"/>
+      <c r="O50" s="124"/>
+      <c r="P50" s="124"/>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="124"/>
+      <c r="S50" s="124"/>
       <c r="T50" s="52"/>
-      <c r="U50" s="103">
+      <c r="U50" s="107">
         <v>42</v>
       </c>
-      <c r="V50" s="96" t="s">
+      <c r="V50" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="W50" s="96"/>
-      <c r="X50" s="96"/>
-      <c r="Y50" s="96"/>
-      <c r="Z50" s="96"/>
-      <c r="AA50" s="96"/>
-      <c r="AB50" s="96"/>
-      <c r="AC50" s="96"/>
-      <c r="AD50" s="96"/>
-      <c r="AE50" s="96"/>
-      <c r="AF50" s="96"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="111"/>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="111"/>
+      <c r="AE50" s="111"/>
+      <c r="AF50" s="111"/>
       <c r="AG50" s="48"/>
       <c r="AH50" s="48"/>
       <c r="AI50" s="48"/>
@@ -15399,40 +15399,40 @@
       <c r="AN50" s="56"/>
     </row>
     <row r="51" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="85"/>
-      <c r="U51" s="103"/>
-      <c r="V51" s="96"/>
-      <c r="W51" s="96"/>
-      <c r="X51" s="96"/>
-      <c r="Y51" s="96"/>
-      <c r="Z51" s="96"/>
-      <c r="AA51" s="96"/>
-      <c r="AB51" s="96"/>
-      <c r="AC51" s="96"/>
-      <c r="AD51" s="96"/>
-      <c r="AE51" s="96"/>
-      <c r="AF51" s="96"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="137"/>
+      <c r="L51" s="137"/>
+      <c r="M51" s="137"/>
+      <c r="N51" s="137"/>
+      <c r="O51" s="137"/>
+      <c r="P51" s="137"/>
+      <c r="Q51" s="137"/>
+      <c r="R51" s="137"/>
+      <c r="S51" s="137"/>
+      <c r="T51" s="138"/>
+      <c r="U51" s="107"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="111"/>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="111"/>
+      <c r="AF51" s="111"/>
       <c r="AG51" s="48"/>
       <c r="AH51" s="48"/>
       <c r="AI51" s="48"/>
@@ -15467,22 +15467,22 @@
       <c r="R52" s="48"/>
       <c r="S52" s="48"/>
       <c r="T52" s="48"/>
-      <c r="U52" s="103">
+      <c r="U52" s="107">
         <v>43</v>
       </c>
-      <c r="V52" s="96" t="s">
+      <c r="V52" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="W52" s="96"/>
-      <c r="X52" s="96"/>
-      <c r="Y52" s="96"/>
-      <c r="Z52" s="96"/>
-      <c r="AA52" s="96"/>
-      <c r="AB52" s="96"/>
-      <c r="AC52" s="96"/>
-      <c r="AD52" s="96"/>
-      <c r="AE52" s="96"/>
-      <c r="AF52" s="96"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
+      <c r="Z52" s="111"/>
+      <c r="AA52" s="111"/>
+      <c r="AB52" s="111"/>
+      <c r="AC52" s="111"/>
+      <c r="AD52" s="111"/>
+      <c r="AE52" s="111"/>
+      <c r="AF52" s="111"/>
       <c r="AG52" s="48"/>
       <c r="AH52" s="48"/>
       <c r="AI52" s="48"/>
@@ -15513,18 +15513,18 @@
       <c r="R53" s="51"/>
       <c r="S53" s="51"/>
       <c r="T53" s="52"/>
-      <c r="U53" s="103"/>
-      <c r="V53" s="96"/>
-      <c r="W53" s="96"/>
-      <c r="X53" s="96"/>
-      <c r="Y53" s="96"/>
-      <c r="Z53" s="96"/>
-      <c r="AA53" s="96"/>
-      <c r="AB53" s="96"/>
-      <c r="AC53" s="96"/>
-      <c r="AD53" s="96"/>
-      <c r="AE53" s="96"/>
-      <c r="AF53" s="96"/>
+      <c r="U53" s="107"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="111"/>
+      <c r="X53" s="111"/>
+      <c r="Y53" s="111"/>
+      <c r="Z53" s="111"/>
+      <c r="AA53" s="111"/>
+      <c r="AB53" s="111"/>
+      <c r="AC53" s="111"/>
+      <c r="AD53" s="111"/>
+      <c r="AE53" s="111"/>
+      <c r="AF53" s="111"/>
       <c r="AG53" s="48"/>
       <c r="AH53" s="48"/>
       <c r="AI53" s="48"/>
@@ -15603,10 +15603,10 @@
       <c r="R55" s="48"/>
       <c r="S55" s="48"/>
       <c r="T55" s="48"/>
-      <c r="U55" s="108" t="s">
+      <c r="U55" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="V55" s="109"/>
+      <c r="V55" s="104"/>
       <c r="W55" s="48"/>
       <c r="X55" s="48"/>
       <c r="Y55" s="48"/>
@@ -15647,8 +15647,8 @@
       <c r="R56" s="51"/>
       <c r="S56" s="51"/>
       <c r="T56" s="52"/>
-      <c r="U56" s="108"/>
-      <c r="V56" s="109"/>
+      <c r="U56" s="103"/>
+      <c r="V56" s="104"/>
       <c r="W56" s="48"/>
       <c r="X56" s="48"/>
       <c r="Y56" s="48"/>
@@ -15693,10 +15693,10 @@
       <c r="R57" s="48"/>
       <c r="S57" s="48"/>
       <c r="T57" s="48"/>
-      <c r="U57" s="108" t="s">
+      <c r="U57" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="V57" s="109"/>
+      <c r="V57" s="104"/>
       <c r="W57" s="48"/>
       <c r="X57" s="48"/>
       <c r="Y57" s="48"/>
@@ -15737,8 +15737,8 @@
       <c r="R58" s="48"/>
       <c r="S58" s="48"/>
       <c r="T58" s="48"/>
-      <c r="U58" s="108"/>
-      <c r="V58" s="109"/>
+      <c r="U58" s="103"/>
+      <c r="V58" s="104"/>
       <c r="W58" s="48"/>
       <c r="X58" s="48"/>
       <c r="Y58" s="48"/>
@@ -15803,44 +15803,44 @@
       <c r="AN59" s="56"/>
     </row>
     <row r="60" spans="1:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="85"/>
-      <c r="U60" s="103">
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="137"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="137"/>
+      <c r="Q60" s="137"/>
+      <c r="R60" s="137"/>
+      <c r="S60" s="137"/>
+      <c r="T60" s="138"/>
+      <c r="U60" s="107">
         <v>45</v>
       </c>
-      <c r="V60" s="96" t="s">
+      <c r="V60" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="W60" s="96"/>
-      <c r="X60" s="96"/>
-      <c r="Y60" s="96"/>
-      <c r="Z60" s="96"/>
-      <c r="AA60" s="96"/>
-      <c r="AB60" s="96"/>
-      <c r="AC60" s="96"/>
-      <c r="AD60" s="96"/>
-      <c r="AE60" s="96"/>
-      <c r="AF60" s="96"/>
+      <c r="W60" s="111"/>
+      <c r="X60" s="111"/>
+      <c r="Y60" s="111"/>
+      <c r="Z60" s="111"/>
+      <c r="AA60" s="111"/>
+      <c r="AB60" s="111"/>
+      <c r="AC60" s="111"/>
+      <c r="AD60" s="111"/>
+      <c r="AE60" s="111"/>
+      <c r="AF60" s="111"/>
       <c r="AG60" s="48"/>
       <c r="AH60" s="48"/>
       <c r="AI60" s="48"/>
@@ -15851,7 +15851,7 @@
       <c r="AN60" s="56"/>
     </row>
     <row r="61" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="110">
+      <c r="A61" s="112">
         <v>19</v>
       </c>
       <c r="B61" s="48" t="s">
@@ -15875,18 +15875,18 @@
       <c r="R61" s="48"/>
       <c r="S61" s="48"/>
       <c r="T61" s="48"/>
-      <c r="U61" s="103"/>
-      <c r="V61" s="96"/>
-      <c r="W61" s="96"/>
-      <c r="X61" s="96"/>
-      <c r="Y61" s="96"/>
-      <c r="Z61" s="96"/>
-      <c r="AA61" s="96"/>
-      <c r="AB61" s="96"/>
-      <c r="AC61" s="96"/>
-      <c r="AD61" s="96"/>
-      <c r="AE61" s="96"/>
-      <c r="AF61" s="96"/>
+      <c r="U61" s="107"/>
+      <c r="V61" s="111"/>
+      <c r="W61" s="111"/>
+      <c r="X61" s="111"/>
+      <c r="Y61" s="111"/>
+      <c r="Z61" s="111"/>
+      <c r="AA61" s="111"/>
+      <c r="AB61" s="111"/>
+      <c r="AC61" s="111"/>
+      <c r="AD61" s="111"/>
+      <c r="AE61" s="111"/>
+      <c r="AF61" s="111"/>
       <c r="AG61" s="48"/>
       <c r="AH61" s="48"/>
       <c r="AI61" s="48"/>
@@ -15897,7 +15897,7 @@
       <c r="AN61" s="56"/>
     </row>
     <row r="62" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="48" t="s">
         <v>111</v>
       </c>
@@ -15919,22 +15919,22 @@
       <c r="R62" s="48"/>
       <c r="S62" s="48"/>
       <c r="T62" s="56"/>
-      <c r="U62" s="103">
+      <c r="U62" s="107">
         <v>46</v>
       </c>
-      <c r="V62" s="96" t="s">
+      <c r="V62" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="W62" s="96"/>
-      <c r="X62" s="96"/>
-      <c r="Y62" s="96"/>
-      <c r="Z62" s="96"/>
-      <c r="AA62" s="96"/>
-      <c r="AB62" s="96"/>
-      <c r="AC62" s="96"/>
-      <c r="AD62" s="96"/>
-      <c r="AE62" s="96"/>
-      <c r="AF62" s="96"/>
+      <c r="W62" s="111"/>
+      <c r="X62" s="111"/>
+      <c r="Y62" s="111"/>
+      <c r="Z62" s="111"/>
+      <c r="AA62" s="111"/>
+      <c r="AB62" s="111"/>
+      <c r="AC62" s="111"/>
+      <c r="AD62" s="111"/>
+      <c r="AE62" s="111"/>
+      <c r="AF62" s="111"/>
       <c r="AG62" s="48"/>
       <c r="AH62" s="48"/>
       <c r="AI62" s="48"/>
@@ -15945,7 +15945,7 @@
       <c r="AN62" s="56"/>
     </row>
     <row r="63" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="98">
+      <c r="A63" s="105">
         <v>20</v>
       </c>
       <c r="B63" s="63" t="s">
@@ -15969,18 +15969,18 @@
       <c r="R63" s="48"/>
       <c r="S63" s="48"/>
       <c r="T63" s="56"/>
-      <c r="U63" s="103"/>
-      <c r="V63" s="96"/>
-      <c r="W63" s="96"/>
-      <c r="X63" s="96"/>
-      <c r="Y63" s="96"/>
-      <c r="Z63" s="96"/>
-      <c r="AA63" s="96"/>
-      <c r="AB63" s="96"/>
-      <c r="AC63" s="96"/>
-      <c r="AD63" s="96"/>
-      <c r="AE63" s="96"/>
-      <c r="AF63" s="96"/>
+      <c r="U63" s="107"/>
+      <c r="V63" s="111"/>
+      <c r="W63" s="111"/>
+      <c r="X63" s="111"/>
+      <c r="Y63" s="111"/>
+      <c r="Z63" s="111"/>
+      <c r="AA63" s="111"/>
+      <c r="AB63" s="111"/>
+      <c r="AC63" s="111"/>
+      <c r="AD63" s="111"/>
+      <c r="AE63" s="111"/>
+      <c r="AF63" s="111"/>
       <c r="AG63" s="48"/>
       <c r="AH63" s="48"/>
       <c r="AI63" s="48"/>
@@ -15991,7 +15991,7 @@
       <c r="AN63" s="56"/>
     </row>
     <row r="64" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="98"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="48" t="s">
         <v>112</v>
       </c>
@@ -16013,22 +16013,22 @@
       <c r="R64" s="48"/>
       <c r="S64" s="48"/>
       <c r="T64" s="56"/>
-      <c r="U64" s="103">
+      <c r="U64" s="107">
         <v>47</v>
       </c>
-      <c r="V64" s="96" t="s">
+      <c r="V64" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="W64" s="96"/>
-      <c r="X64" s="96"/>
-      <c r="Y64" s="96"/>
-      <c r="Z64" s="96"/>
-      <c r="AA64" s="96"/>
-      <c r="AB64" s="96"/>
-      <c r="AC64" s="96"/>
-      <c r="AD64" s="96"/>
-      <c r="AE64" s="96"/>
-      <c r="AF64" s="96"/>
+      <c r="W64" s="111"/>
+      <c r="X64" s="111"/>
+      <c r="Y64" s="111"/>
+      <c r="Z64" s="111"/>
+      <c r="AA64" s="111"/>
+      <c r="AB64" s="111"/>
+      <c r="AC64" s="111"/>
+      <c r="AD64" s="111"/>
+      <c r="AE64" s="111"/>
+      <c r="AF64" s="111"/>
       <c r="AG64" s="48"/>
       <c r="AH64" s="48"/>
       <c r="AI64" s="48"/>
@@ -16039,7 +16039,7 @@
       <c r="AN64" s="56"/>
     </row>
     <row r="65" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="98">
+      <c r="A65" s="105">
         <v>21</v>
       </c>
       <c r="B65" s="48" t="s">
@@ -16063,18 +16063,18 @@
       <c r="R65" s="48"/>
       <c r="S65" s="48"/>
       <c r="T65" s="56"/>
-      <c r="U65" s="103"/>
-      <c r="V65" s="96"/>
-      <c r="W65" s="96"/>
-      <c r="X65" s="96"/>
-      <c r="Y65" s="96"/>
-      <c r="Z65" s="96"/>
-      <c r="AA65" s="96"/>
-      <c r="AB65" s="96"/>
-      <c r="AC65" s="96"/>
-      <c r="AD65" s="96"/>
-      <c r="AE65" s="96"/>
-      <c r="AF65" s="96"/>
+      <c r="U65" s="107"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="111"/>
+      <c r="X65" s="111"/>
+      <c r="Y65" s="111"/>
+      <c r="Z65" s="111"/>
+      <c r="AA65" s="111"/>
+      <c r="AB65" s="111"/>
+      <c r="AC65" s="111"/>
+      <c r="AD65" s="111"/>
+      <c r="AE65" s="111"/>
+      <c r="AF65" s="111"/>
       <c r="AG65" s="48"/>
       <c r="AH65" s="48"/>
       <c r="AI65" s="48"/>
@@ -16085,7 +16085,7 @@
       <c r="AN65" s="56"/>
     </row>
     <row r="66" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="98"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="48" t="s">
         <v>113</v>
       </c>
@@ -16107,22 +16107,22 @@
       <c r="R66" s="48"/>
       <c r="S66" s="48"/>
       <c r="T66" s="56"/>
-      <c r="U66" s="103">
+      <c r="U66" s="107">
         <v>48</v>
       </c>
-      <c r="V66" s="96" t="s">
+      <c r="V66" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="W66" s="96"/>
-      <c r="X66" s="96"/>
-      <c r="Y66" s="96"/>
-      <c r="Z66" s="96"/>
-      <c r="AA66" s="96"/>
-      <c r="AB66" s="96"/>
-      <c r="AC66" s="96"/>
-      <c r="AD66" s="96"/>
-      <c r="AE66" s="96"/>
-      <c r="AF66" s="96"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="111"/>
+      <c r="Y66" s="111"/>
+      <c r="Z66" s="111"/>
+      <c r="AA66" s="111"/>
+      <c r="AB66" s="111"/>
+      <c r="AC66" s="111"/>
+      <c r="AD66" s="111"/>
+      <c r="AE66" s="111"/>
+      <c r="AF66" s="111"/>
       <c r="AG66" s="48"/>
       <c r="AH66" s="48"/>
       <c r="AI66" s="48"/>
@@ -16133,7 +16133,7 @@
       <c r="AN66" s="56"/>
     </row>
     <row r="67" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="98">
+      <c r="A67" s="105">
         <v>22</v>
       </c>
       <c r="B67" s="48" t="s">
@@ -16157,18 +16157,18 @@
       <c r="R67" s="48"/>
       <c r="S67" s="48"/>
       <c r="T67" s="56"/>
-      <c r="U67" s="103"/>
-      <c r="V67" s="96"/>
-      <c r="W67" s="96"/>
-      <c r="X67" s="96"/>
-      <c r="Y67" s="96"/>
-      <c r="Z67" s="96"/>
-      <c r="AA67" s="96"/>
-      <c r="AB67" s="96"/>
-      <c r="AC67" s="96"/>
-      <c r="AD67" s="96"/>
-      <c r="AE67" s="96"/>
-      <c r="AF67" s="96"/>
+      <c r="U67" s="107"/>
+      <c r="V67" s="111"/>
+      <c r="W67" s="111"/>
+      <c r="X67" s="111"/>
+      <c r="Y67" s="111"/>
+      <c r="Z67" s="111"/>
+      <c r="AA67" s="111"/>
+      <c r="AB67" s="111"/>
+      <c r="AC67" s="111"/>
+      <c r="AD67" s="111"/>
+      <c r="AE67" s="111"/>
+      <c r="AF67" s="111"/>
       <c r="AG67" s="48"/>
       <c r="AH67" s="48"/>
       <c r="AI67" s="48"/>
@@ -16179,7 +16179,7 @@
       <c r="AN67" s="56"/>
     </row>
     <row r="68" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="98"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="48" t="s">
         <v>54</v>
       </c>
@@ -16201,22 +16201,22 @@
       <c r="R68" s="48"/>
       <c r="S68" s="48"/>
       <c r="T68" s="56"/>
-      <c r="U68" s="103">
+      <c r="U68" s="107">
         <v>49</v>
       </c>
-      <c r="V68" s="96" t="s">
+      <c r="V68" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="W68" s="96"/>
-      <c r="X68" s="96"/>
-      <c r="Y68" s="96"/>
-      <c r="Z68" s="96"/>
-      <c r="AA68" s="96"/>
-      <c r="AB68" s="96"/>
-      <c r="AC68" s="96"/>
-      <c r="AD68" s="96"/>
-      <c r="AE68" s="96"/>
-      <c r="AF68" s="96"/>
+      <c r="W68" s="111"/>
+      <c r="X68" s="111"/>
+      <c r="Y68" s="111"/>
+      <c r="Z68" s="111"/>
+      <c r="AA68" s="111"/>
+      <c r="AB68" s="111"/>
+      <c r="AC68" s="111"/>
+      <c r="AD68" s="111"/>
+      <c r="AE68" s="111"/>
+      <c r="AF68" s="111"/>
       <c r="AG68" s="48"/>
       <c r="AH68" s="48"/>
       <c r="AI68" s="48"/>
@@ -16227,7 +16227,7 @@
       <c r="AN68" s="56"/>
     </row>
     <row r="69" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="98">
+      <c r="A69" s="105">
         <v>23</v>
       </c>
       <c r="B69" s="48" t="s">
@@ -16251,18 +16251,18 @@
       <c r="R69" s="48"/>
       <c r="S69" s="48"/>
       <c r="T69" s="56"/>
-      <c r="U69" s="103"/>
-      <c r="V69" s="96"/>
-      <c r="W69" s="96"/>
-      <c r="X69" s="96"/>
-      <c r="Y69" s="96"/>
-      <c r="Z69" s="96"/>
-      <c r="AA69" s="96"/>
-      <c r="AB69" s="96"/>
-      <c r="AC69" s="96"/>
-      <c r="AD69" s="96"/>
-      <c r="AE69" s="96"/>
-      <c r="AF69" s="96"/>
+      <c r="U69" s="107"/>
+      <c r="V69" s="111"/>
+      <c r="W69" s="111"/>
+      <c r="X69" s="111"/>
+      <c r="Y69" s="111"/>
+      <c r="Z69" s="111"/>
+      <c r="AA69" s="111"/>
+      <c r="AB69" s="111"/>
+      <c r="AC69" s="111"/>
+      <c r="AD69" s="111"/>
+      <c r="AE69" s="111"/>
+      <c r="AF69" s="111"/>
       <c r="AG69" s="48"/>
       <c r="AH69" s="48"/>
       <c r="AI69" s="48"/>
@@ -16273,7 +16273,7 @@
       <c r="AN69" s="56"/>
     </row>
     <row r="70" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="64" t="s">
         <v>96</v>
       </c>
@@ -16295,22 +16295,22 @@
       <c r="R70" s="48"/>
       <c r="S70" s="48"/>
       <c r="T70" s="56"/>
-      <c r="U70" s="103">
+      <c r="U70" s="107">
         <v>50</v>
       </c>
-      <c r="V70" s="96" t="s">
+      <c r="V70" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="W70" s="96"/>
-      <c r="X70" s="96"/>
-      <c r="Y70" s="96"/>
-      <c r="Z70" s="96"/>
-      <c r="AA70" s="96"/>
-      <c r="AB70" s="96"/>
-      <c r="AC70" s="96"/>
-      <c r="AD70" s="96"/>
-      <c r="AE70" s="96"/>
-      <c r="AF70" s="96"/>
+      <c r="W70" s="111"/>
+      <c r="X70" s="111"/>
+      <c r="Y70" s="111"/>
+      <c r="Z70" s="111"/>
+      <c r="AA70" s="111"/>
+      <c r="AB70" s="111"/>
+      <c r="AC70" s="111"/>
+      <c r="AD70" s="111"/>
+      <c r="AE70" s="111"/>
+      <c r="AF70" s="111"/>
       <c r="AG70" s="48"/>
       <c r="AH70" s="48"/>
       <c r="AI70" s="48"/>
@@ -16321,22 +16321,22 @@
       <c r="AN70" s="56"/>
     </row>
     <row r="71" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="103">
+      <c r="A71" s="107">
         <v>24</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="111"/>
+      <c r="K71" s="111"/>
+      <c r="L71" s="111"/>
       <c r="M71" s="48"/>
       <c r="N71" s="48"/>
       <c r="O71" s="48"/>
@@ -16345,18 +16345,18 @@
       <c r="R71" s="48"/>
       <c r="S71" s="48"/>
       <c r="T71" s="56"/>
-      <c r="U71" s="103"/>
-      <c r="V71" s="96"/>
-      <c r="W71" s="96"/>
-      <c r="X71" s="96"/>
-      <c r="Y71" s="96"/>
-      <c r="Z71" s="96"/>
-      <c r="AA71" s="96"/>
-      <c r="AB71" s="96"/>
-      <c r="AC71" s="96"/>
-      <c r="AD71" s="96"/>
-      <c r="AE71" s="96"/>
-      <c r="AF71" s="96"/>
+      <c r="U71" s="107"/>
+      <c r="V71" s="111"/>
+      <c r="W71" s="111"/>
+      <c r="X71" s="111"/>
+      <c r="Y71" s="111"/>
+      <c r="Z71" s="111"/>
+      <c r="AA71" s="111"/>
+      <c r="AB71" s="111"/>
+      <c r="AC71" s="111"/>
+      <c r="AD71" s="111"/>
+      <c r="AE71" s="111"/>
+      <c r="AF71" s="111"/>
       <c r="AG71" s="48"/>
       <c r="AH71" s="48"/>
       <c r="AI71" s="48"/>
@@ -16367,18 +16367,18 @@
       <c r="AN71" s="56"/>
     </row>
     <row r="72" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="103"/>
-      <c r="B72" s="96"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="96"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="96"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="96"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="111"/>
+      <c r="J72" s="111"/>
+      <c r="K72" s="111"/>
+      <c r="L72" s="111"/>
       <c r="M72" s="48"/>
       <c r="N72" s="48"/>
       <c r="O72" s="48"/>
@@ -16437,10 +16437,10 @@
       <c r="R73" s="48"/>
       <c r="S73" s="48"/>
       <c r="T73" s="56"/>
-      <c r="U73" s="108" t="s">
+      <c r="U73" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="V73" s="109"/>
+      <c r="V73" s="104"/>
       <c r="W73" s="48"/>
       <c r="X73" s="48"/>
       <c r="Y73" s="48"/>
@@ -16483,8 +16483,8 @@
       <c r="R74" s="48"/>
       <c r="S74" s="48"/>
       <c r="T74" s="56"/>
-      <c r="U74" s="108"/>
-      <c r="V74" s="109"/>
+      <c r="U74" s="103"/>
+      <c r="V74" s="104"/>
       <c r="W74" s="48"/>
       <c r="X74" s="48"/>
       <c r="Y74" s="48"/>
@@ -16505,20 +16505,20 @@
       <c r="AN74" s="56"/>
     </row>
     <row r="75" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="103"/>
-      <c r="B75" s="96" t="s">
+      <c r="A75" s="107"/>
+      <c r="B75" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="96"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="111"/>
+      <c r="K75" s="111"/>
+      <c r="L75" s="111"/>
       <c r="M75" s="48"/>
       <c r="N75" s="48"/>
       <c r="O75" s="48"/>
@@ -16527,10 +16527,10 @@
       <c r="R75" s="48"/>
       <c r="S75" s="48"/>
       <c r="T75" s="56"/>
-      <c r="U75" s="108" t="s">
+      <c r="U75" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="V75" s="109"/>
+      <c r="V75" s="104"/>
       <c r="W75" s="48"/>
       <c r="X75" s="48"/>
       <c r="Y75" s="48"/>
@@ -16551,18 +16551,18 @@
       <c r="AN75" s="56"/>
     </row>
     <row r="76" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="103"/>
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="96"/>
-      <c r="J76" s="96"/>
-      <c r="K76" s="96"/>
-      <c r="L76" s="96"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="111"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="111"/>
+      <c r="K76" s="111"/>
+      <c r="L76" s="111"/>
       <c r="M76" s="48"/>
       <c r="N76" s="48"/>
       <c r="O76" s="48"/>
@@ -16571,8 +16571,8 @@
       <c r="R76" s="48"/>
       <c r="S76" s="48"/>
       <c r="T76" s="56"/>
-      <c r="U76" s="108"/>
-      <c r="V76" s="109"/>
+      <c r="U76" s="103"/>
+      <c r="V76" s="104"/>
       <c r="W76" s="48"/>
       <c r="X76" s="48"/>
       <c r="Y76" s="48"/>
@@ -16596,19 +16596,19 @@
       <c r="A77" s="66">
         <v>26</v>
       </c>
-      <c r="B77" s="106" t="s">
+      <c r="B77" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="106"/>
-      <c r="L77" s="106"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="108"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="108"/>
       <c r="M77" s="48"/>
       <c r="N77" s="48"/>
       <c r="O77" s="48"/>
@@ -16617,7 +16617,7 @@
       <c r="R77" s="48"/>
       <c r="S77" s="48"/>
       <c r="T77" s="56"/>
-      <c r="U77" s="98">
+      <c r="U77" s="105">
         <v>52</v>
       </c>
       <c r="V77" s="48" t="s">
@@ -16644,17 +16644,17 @@
     </row>
     <row r="78" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="106"/>
-      <c r="J78" s="106"/>
-      <c r="K78" s="106"/>
-      <c r="L78" s="106"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="108"/>
+      <c r="K78" s="108"/>
+      <c r="L78" s="108"/>
       <c r="M78" s="48"/>
       <c r="N78" s="48"/>
       <c r="O78" s="48"/>
@@ -16663,7 +16663,7 @@
       <c r="R78" s="48"/>
       <c r="S78" s="48"/>
       <c r="T78" s="56"/>
-      <c r="U78" s="98"/>
+      <c r="U78" s="105"/>
       <c r="V78" s="64" t="s">
         <v>109</v>
       </c>
@@ -16690,19 +16690,19 @@
       <c r="A79" s="47">
         <v>27</v>
       </c>
-      <c r="B79" s="106" t="s">
+      <c r="B79" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="106"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="106"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="106"/>
-      <c r="I79" s="106"/>
-      <c r="J79" s="106"/>
-      <c r="K79" s="106"/>
-      <c r="L79" s="106"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="108"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="108"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="108"/>
+      <c r="L79" s="108"/>
       <c r="M79" s="48"/>
       <c r="N79" s="48"/>
       <c r="O79" s="48"/>
@@ -16711,7 +16711,7 @@
       <c r="R79" s="48"/>
       <c r="S79" s="48"/>
       <c r="T79" s="56"/>
-      <c r="U79" s="98"/>
+      <c r="U79" s="105"/>
       <c r="V79" s="48"/>
       <c r="W79" s="48"/>
       <c r="X79" s="48"/>
@@ -16733,22 +16733,22 @@
       <c r="AN79" s="56"/>
     </row>
     <row r="80" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="103">
+      <c r="A80" s="107">
         <v>28</v>
       </c>
-      <c r="B80" s="106" t="s">
+      <c r="B80" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="106"/>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
-      <c r="F80" s="106"/>
-      <c r="G80" s="106"/>
-      <c r="H80" s="106"/>
-      <c r="I80" s="106"/>
-      <c r="J80" s="106"/>
-      <c r="K80" s="106"/>
-      <c r="L80" s="106"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="108"/>
+      <c r="L80" s="108"/>
       <c r="M80" s="48"/>
       <c r="N80" s="48"/>
       <c r="O80" s="48"/>
@@ -16757,7 +16757,7 @@
       <c r="R80" s="48"/>
       <c r="S80" s="48"/>
       <c r="T80" s="56"/>
-      <c r="U80" s="98"/>
+      <c r="U80" s="105"/>
       <c r="V80" s="48"/>
       <c r="W80" s="48"/>
       <c r="X80" s="48"/>
@@ -16779,18 +16779,18 @@
       <c r="AN80" s="56"/>
     </row>
     <row r="81" spans="1:40" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="122"/>
-      <c r="B81" s="123"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="123"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="123"/>
-      <c r="G81" s="123"/>
-      <c r="H81" s="123"/>
-      <c r="I81" s="123"/>
-      <c r="J81" s="123"/>
-      <c r="K81" s="123"/>
-      <c r="L81" s="123"/>
+      <c r="A81" s="109"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="110"/>
+      <c r="G81" s="110"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="110"/>
+      <c r="K81" s="110"/>
+      <c r="L81" s="110"/>
       <c r="M81" s="68"/>
       <c r="N81" s="68"/>
       <c r="O81" s="68"/>
@@ -16799,7 +16799,7 @@
       <c r="R81" s="68"/>
       <c r="S81" s="68"/>
       <c r="T81" s="69"/>
-      <c r="U81" s="121"/>
+      <c r="U81" s="106"/>
       <c r="V81" s="72"/>
       <c r="W81" s="68"/>
       <c r="X81" s="68"/>
@@ -16821,136 +16821,136 @@
       <c r="AN81" s="69"/>
     </row>
     <row r="82" spans="1:40" s="34" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="111" t="s">
+      <c r="A82" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="112"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="112"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="112"/>
-      <c r="G82" s="112"/>
-      <c r="H82" s="112"/>
-      <c r="I82" s="112"/>
-      <c r="J82" s="112"/>
-      <c r="K82" s="112"/>
-      <c r="L82" s="112"/>
-      <c r="M82" s="112"/>
-      <c r="N82" s="112"/>
-      <c r="O82" s="112"/>
-      <c r="P82" s="112"/>
-      <c r="Q82" s="112"/>
-      <c r="R82" s="112"/>
-      <c r="S82" s="112"/>
-      <c r="T82" s="112"/>
-      <c r="U82" s="112"/>
-      <c r="V82" s="112"/>
-      <c r="W82" s="112"/>
-      <c r="X82" s="112"/>
-      <c r="Y82" s="112"/>
-      <c r="Z82" s="112"/>
-      <c r="AA82" s="112"/>
-      <c r="AB82" s="112"/>
-      <c r="AC82" s="112"/>
-      <c r="AD82" s="112"/>
-      <c r="AE82" s="112"/>
-      <c r="AF82" s="112"/>
-      <c r="AG82" s="112"/>
-      <c r="AH82" s="112"/>
-      <c r="AI82" s="112"/>
-      <c r="AJ82" s="112"/>
-      <c r="AK82" s="112"/>
-      <c r="AL82" s="112"/>
-      <c r="AM82" s="112"/>
-      <c r="AN82" s="113"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="95"/>
+      <c r="L82" s="95"/>
+      <c r="M82" s="95"/>
+      <c r="N82" s="95"/>
+      <c r="O82" s="95"/>
+      <c r="P82" s="95"/>
+      <c r="Q82" s="95"/>
+      <c r="R82" s="95"/>
+      <c r="S82" s="95"/>
+      <c r="T82" s="95"/>
+      <c r="U82" s="95"/>
+      <c r="V82" s="95"/>
+      <c r="W82" s="95"/>
+      <c r="X82" s="95"/>
+      <c r="Y82" s="95"/>
+      <c r="Z82" s="95"/>
+      <c r="AA82" s="95"/>
+      <c r="AB82" s="95"/>
+      <c r="AC82" s="95"/>
+      <c r="AD82" s="95"/>
+      <c r="AE82" s="95"/>
+      <c r="AF82" s="95"/>
+      <c r="AG82" s="95"/>
+      <c r="AH82" s="95"/>
+      <c r="AI82" s="95"/>
+      <c r="AJ82" s="95"/>
+      <c r="AK82" s="95"/>
+      <c r="AL82" s="95"/>
+      <c r="AM82" s="95"/>
+      <c r="AN82" s="96"/>
     </row>
     <row r="83" spans="1:40" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="114" t="s">
+      <c r="A83" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="115"/>
-      <c r="H83" s="115"/>
-      <c r="I83" s="115"/>
-      <c r="J83" s="115"/>
-      <c r="K83" s="115"/>
-      <c r="L83" s="115"/>
-      <c r="M83" s="115"/>
-      <c r="N83" s="115"/>
-      <c r="O83" s="115"/>
-      <c r="P83" s="115"/>
-      <c r="Q83" s="115"/>
-      <c r="R83" s="115"/>
-      <c r="S83" s="115"/>
-      <c r="T83" s="115"/>
-      <c r="U83" s="115"/>
-      <c r="V83" s="115"/>
-      <c r="W83" s="115"/>
-      <c r="X83" s="115"/>
-      <c r="Y83" s="115"/>
-      <c r="Z83" s="115"/>
-      <c r="AA83" s="115"/>
-      <c r="AB83" s="115"/>
-      <c r="AC83" s="115"/>
-      <c r="AD83" s="115"/>
-      <c r="AE83" s="115"/>
-      <c r="AF83" s="115"/>
-      <c r="AG83" s="115"/>
-      <c r="AH83" s="115"/>
-      <c r="AI83" s="115"/>
-      <c r="AJ83" s="115"/>
-      <c r="AK83" s="115"/>
-      <c r="AL83" s="115"/>
-      <c r="AM83" s="115"/>
-      <c r="AN83" s="116"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="98"/>
+      <c r="J83" s="98"/>
+      <c r="K83" s="98"/>
+      <c r="L83" s="98"/>
+      <c r="M83" s="98"/>
+      <c r="N83" s="98"/>
+      <c r="O83" s="98"/>
+      <c r="P83" s="98"/>
+      <c r="Q83" s="98"/>
+      <c r="R83" s="98"/>
+      <c r="S83" s="98"/>
+      <c r="T83" s="98"/>
+      <c r="U83" s="98"/>
+      <c r="V83" s="98"/>
+      <c r="W83" s="98"/>
+      <c r="X83" s="98"/>
+      <c r="Y83" s="98"/>
+      <c r="Z83" s="98"/>
+      <c r="AA83" s="98"/>
+      <c r="AB83" s="98"/>
+      <c r="AC83" s="98"/>
+      <c r="AD83" s="98"/>
+      <c r="AE83" s="98"/>
+      <c r="AF83" s="98"/>
+      <c r="AG83" s="98"/>
+      <c r="AH83" s="98"/>
+      <c r="AI83" s="98"/>
+      <c r="AJ83" s="98"/>
+      <c r="AK83" s="98"/>
+      <c r="AL83" s="98"/>
+      <c r="AM83" s="98"/>
+      <c r="AN83" s="99"/>
     </row>
     <row r="84" spans="1:40" s="35" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118"/>
-      <c r="K84" s="118"/>
-      <c r="L84" s="118"/>
-      <c r="M84" s="118"/>
-      <c r="N84" s="118"/>
-      <c r="O84" s="118"/>
-      <c r="P84" s="118"/>
-      <c r="Q84" s="118"/>
-      <c r="R84" s="118"/>
-      <c r="S84" s="118"/>
-      <c r="T84" s="118"/>
-      <c r="U84" s="118"/>
-      <c r="V84" s="118"/>
-      <c r="W84" s="118"/>
-      <c r="X84" s="118"/>
-      <c r="Y84" s="118"/>
-      <c r="Z84" s="118"/>
-      <c r="AA84" s="118"/>
-      <c r="AB84" s="118"/>
-      <c r="AC84" s="118"/>
-      <c r="AD84" s="118"/>
-      <c r="AE84" s="118"/>
-      <c r="AF84" s="118"/>
-      <c r="AG84" s="118"/>
-      <c r="AH84" s="118"/>
-      <c r="AI84" s="118"/>
-      <c r="AJ84" s="118"/>
-      <c r="AK84" s="118"/>
-      <c r="AL84" s="118"/>
-      <c r="AM84" s="118"/>
-      <c r="AN84" s="119"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="101"/>
+      <c r="H84" s="101"/>
+      <c r="I84" s="101"/>
+      <c r="J84" s="101"/>
+      <c r="K84" s="101"/>
+      <c r="L84" s="101"/>
+      <c r="M84" s="101"/>
+      <c r="N84" s="101"/>
+      <c r="O84" s="101"/>
+      <c r="P84" s="101"/>
+      <c r="Q84" s="101"/>
+      <c r="R84" s="101"/>
+      <c r="S84" s="101"/>
+      <c r="T84" s="101"/>
+      <c r="U84" s="101"/>
+      <c r="V84" s="101"/>
+      <c r="W84" s="101"/>
+      <c r="X84" s="101"/>
+      <c r="Y84" s="101"/>
+      <c r="Z84" s="101"/>
+      <c r="AA84" s="101"/>
+      <c r="AB84" s="101"/>
+      <c r="AC84" s="101"/>
+      <c r="AD84" s="101"/>
+      <c r="AE84" s="101"/>
+      <c r="AF84" s="101"/>
+      <c r="AG84" s="101"/>
+      <c r="AH84" s="101"/>
+      <c r="AI84" s="101"/>
+      <c r="AJ84" s="101"/>
+      <c r="AK84" s="101"/>
+      <c r="AL84" s="101"/>
+      <c r="AM84" s="101"/>
+      <c r="AN84" s="102"/>
     </row>
     <row r="85" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
@@ -17018,12 +17018,12 @@
       <c r="T86" s="13"/>
       <c r="U86" s="13"/>
       <c r="W86" s="13"/>
-      <c r="Y86" s="74" t="s">
+      <c r="Y86" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="Z86" s="74"/>
-      <c r="AA86" s="74"/>
-      <c r="AB86" s="74"/>
+      <c r="Z86" s="129"/>
+      <c r="AA86" s="129"/>
+      <c r="AB86" s="129"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="13"/>
       <c r="AE86" s="13"/>
@@ -17040,34 +17040,34 @@
     <row r="87" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="13"/>
-      <c r="C87" s="120" t="s">
+      <c r="C87" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
-      <c r="F87" s="120"/>
-      <c r="G87" s="120"/>
-      <c r="H87" s="120"/>
-      <c r="I87" s="120"/>
-      <c r="J87" s="120"/>
-      <c r="K87" s="120"/>
-      <c r="L87" s="120"/>
-      <c r="M87" s="120"/>
-      <c r="N87" s="120"/>
-      <c r="O87" s="120"/>
-      <c r="P87" s="120"/>
-      <c r="Q87" s="120"/>
-      <c r="R87" s="120"/>
-      <c r="S87" s="120"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="73"/>
+      <c r="L87" s="73"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="73"/>
+      <c r="O87" s="73"/>
+      <c r="P87" s="73"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="73"/>
       <c r="T87" s="13"/>
       <c r="U87" s="13"/>
       <c r="V87" s="13"/>
       <c r="W87" s="13"/>
       <c r="X87" s="13"/>
-      <c r="Y87" s="74"/>
-      <c r="Z87" s="74"/>
-      <c r="AA87" s="74"/>
-      <c r="AB87" s="74"/>
+      <c r="Y87" s="129"/>
+      <c r="Z87" s="129"/>
+      <c r="AA87" s="129"/>
+      <c r="AB87" s="129"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="13"/>
       <c r="AE87" s="13"/>
@@ -17149,12 +17149,12 @@
       <c r="T89" s="13"/>
       <c r="U89" s="13"/>
       <c r="W89" s="13"/>
-      <c r="Y89" s="74" t="s">
+      <c r="Y89" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="Z89" s="74"/>
-      <c r="AA89" s="74"/>
-      <c r="AB89" s="74"/>
+      <c r="Z89" s="129"/>
+      <c r="AA89" s="129"/>
+      <c r="AB89" s="129"/>
       <c r="AC89" s="13"/>
       <c r="AD89" s="13"/>
       <c r="AE89" s="13"/>
@@ -17171,34 +17171,34 @@
     <row r="90" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="120" t="s">
+      <c r="C90" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D90" s="120"/>
-      <c r="E90" s="120"/>
-      <c r="F90" s="120"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="120"/>
-      <c r="I90" s="120"/>
-      <c r="J90" s="120"/>
-      <c r="K90" s="120"/>
-      <c r="L90" s="120"/>
-      <c r="M90" s="120"/>
-      <c r="N90" s="120"/>
-      <c r="O90" s="120"/>
-      <c r="P90" s="120"/>
-      <c r="Q90" s="120"/>
-      <c r="R90" s="120"/>
-      <c r="S90" s="120"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="73"/>
+      <c r="L90" s="73"/>
+      <c r="M90" s="73"/>
+      <c r="N90" s="73"/>
+      <c r="O90" s="73"/>
+      <c r="P90" s="73"/>
+      <c r="Q90" s="73"/>
+      <c r="R90" s="73"/>
+      <c r="S90" s="73"/>
       <c r="T90" s="13"/>
       <c r="U90" s="13"/>
       <c r="V90" s="13"/>
       <c r="W90" s="13"/>
       <c r="X90" s="13"/>
-      <c r="Y90" s="74"/>
-      <c r="Z90" s="74"/>
-      <c r="AA90" s="74"/>
-      <c r="AB90" s="74"/>
+      <c r="Y90" s="129"/>
+      <c r="Z90" s="129"/>
+      <c r="AA90" s="129"/>
+      <c r="AB90" s="129"/>
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="13"/>
@@ -17242,12 +17242,12 @@
       <c r="U91" s="13"/>
       <c r="V91" s="13"/>
       <c r="W91" s="13"/>
-      <c r="Y91" s="130" t="s">
+      <c r="Y91" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="Z91" s="130"/>
-      <c r="AA91" s="130"/>
-      <c r="AB91" s="130"/>
+      <c r="Z91" s="80"/>
+      <c r="AA91" s="80"/>
+      <c r="AB91" s="80"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="13"/>
       <c r="AE91" s="13"/>
@@ -17289,10 +17289,10 @@
       <c r="V92" s="17"/>
       <c r="W92" s="17"/>
       <c r="X92" s="17"/>
-      <c r="Y92" s="131"/>
-      <c r="Z92" s="131"/>
-      <c r="AA92" s="131"/>
-      <c r="AB92" s="131"/>
+      <c r="Y92" s="81"/>
+      <c r="Z92" s="81"/>
+      <c r="AA92" s="81"/>
+      <c r="AB92" s="81"/>
       <c r="AC92" s="17"/>
       <c r="AD92" s="17"/>
       <c r="AE92" s="17"/>
@@ -17307,94 +17307,94 @@
       <c r="AN92" s="18"/>
     </row>
     <row r="93" spans="1:40" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="124" t="s">
+      <c r="A93" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
-      <c r="J93" s="125"/>
-      <c r="K93" s="125"/>
-      <c r="L93" s="125"/>
-      <c r="M93" s="125"/>
-      <c r="N93" s="125"/>
-      <c r="O93" s="125"/>
-      <c r="P93" s="125"/>
-      <c r="Q93" s="125"/>
-      <c r="R93" s="125"/>
-      <c r="S93" s="125"/>
-      <c r="T93" s="125"/>
-      <c r="U93" s="125"/>
-      <c r="V93" s="125"/>
-      <c r="W93" s="125"/>
-      <c r="X93" s="125"/>
-      <c r="Y93" s="125"/>
-      <c r="Z93" s="125"/>
-      <c r="AA93" s="125"/>
-      <c r="AB93" s="125"/>
-      <c r="AC93" s="125"/>
-      <c r="AD93" s="125"/>
-      <c r="AE93" s="125"/>
-      <c r="AF93" s="125"/>
-      <c r="AG93" s="125"/>
-      <c r="AH93" s="125"/>
-      <c r="AI93" s="125"/>
-      <c r="AJ93" s="125"/>
-      <c r="AK93" s="125"/>
-      <c r="AL93" s="125"/>
-      <c r="AM93" s="125"/>
-      <c r="AN93" s="126"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="75"/>
+      <c r="Q93" s="75"/>
+      <c r="R93" s="75"/>
+      <c r="S93" s="75"/>
+      <c r="T93" s="75"/>
+      <c r="U93" s="75"/>
+      <c r="V93" s="75"/>
+      <c r="W93" s="75"/>
+      <c r="X93" s="75"/>
+      <c r="Y93" s="75"/>
+      <c r="Z93" s="75"/>
+      <c r="AA93" s="75"/>
+      <c r="AB93" s="75"/>
+      <c r="AC93" s="75"/>
+      <c r="AD93" s="75"/>
+      <c r="AE93" s="75"/>
+      <c r="AF93" s="75"/>
+      <c r="AG93" s="75"/>
+      <c r="AH93" s="75"/>
+      <c r="AI93" s="75"/>
+      <c r="AJ93" s="75"/>
+      <c r="AK93" s="75"/>
+      <c r="AL93" s="75"/>
+      <c r="AM93" s="75"/>
+      <c r="AN93" s="76"/>
     </row>
     <row r="94" spans="1:40" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="138" t="s">
+      <c r="A94" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="139"/>
-      <c r="C94" s="139"/>
-      <c r="D94" s="139"/>
-      <c r="E94" s="139"/>
-      <c r="F94" s="139"/>
-      <c r="G94" s="139"/>
-      <c r="H94" s="139"/>
-      <c r="I94" s="139"/>
-      <c r="J94" s="139"/>
-      <c r="K94" s="139"/>
-      <c r="L94" s="139"/>
-      <c r="M94" s="139"/>
-      <c r="N94" s="139"/>
-      <c r="O94" s="139"/>
-      <c r="P94" s="139"/>
-      <c r="Q94" s="139"/>
-      <c r="R94" s="139"/>
-      <c r="S94" s="139"/>
-      <c r="T94" s="140"/>
-      <c r="U94" s="127" t="s">
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="89"/>
+      <c r="G94" s="89"/>
+      <c r="H94" s="89"/>
+      <c r="I94" s="89"/>
+      <c r="J94" s="89"/>
+      <c r="K94" s="89"/>
+      <c r="L94" s="89"/>
+      <c r="M94" s="89"/>
+      <c r="N94" s="89"/>
+      <c r="O94" s="89"/>
+      <c r="P94" s="89"/>
+      <c r="Q94" s="89"/>
+      <c r="R94" s="89"/>
+      <c r="S94" s="89"/>
+      <c r="T94" s="90"/>
+      <c r="U94" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="V94" s="128"/>
-      <c r="W94" s="128"/>
-      <c r="X94" s="128"/>
-      <c r="Y94" s="128"/>
-      <c r="Z94" s="128"/>
-      <c r="AA94" s="128"/>
-      <c r="AB94" s="128"/>
-      <c r="AC94" s="128"/>
-      <c r="AD94" s="128"/>
-      <c r="AE94" s="128"/>
-      <c r="AF94" s="128"/>
-      <c r="AG94" s="128"/>
-      <c r="AH94" s="128"/>
-      <c r="AI94" s="128"/>
-      <c r="AJ94" s="128"/>
-      <c r="AK94" s="128"/>
-      <c r="AL94" s="128"/>
-      <c r="AM94" s="128"/>
-      <c r="AN94" s="129"/>
+      <c r="V94" s="78"/>
+      <c r="W94" s="78"/>
+      <c r="X94" s="78"/>
+      <c r="Y94" s="78"/>
+      <c r="Z94" s="78"/>
+      <c r="AA94" s="78"/>
+      <c r="AB94" s="78"/>
+      <c r="AC94" s="78"/>
+      <c r="AD94" s="78"/>
+      <c r="AE94" s="78"/>
+      <c r="AF94" s="78"/>
+      <c r="AG94" s="78"/>
+      <c r="AH94" s="78"/>
+      <c r="AI94" s="78"/>
+      <c r="AJ94" s="78"/>
+      <c r="AK94" s="78"/>
+      <c r="AL94" s="78"/>
+      <c r="AM94" s="78"/>
+      <c r="AN94" s="79"/>
     </row>
     <row r="95" spans="1:40" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="41" t="s">
@@ -17421,28 +17421,28 @@
       <c r="R95" s="39"/>
       <c r="S95" s="39"/>
       <c r="T95" s="40"/>
-      <c r="U95" s="141" t="s">
+      <c r="U95" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="V95" s="142"/>
-      <c r="W95" s="142"/>
-      <c r="X95" s="142"/>
-      <c r="Y95" s="142"/>
-      <c r="Z95" s="142"/>
-      <c r="AA95" s="142"/>
-      <c r="AB95" s="142"/>
-      <c r="AC95" s="142"/>
-      <c r="AD95" s="142"/>
-      <c r="AE95" s="142"/>
-      <c r="AF95" s="142"/>
-      <c r="AG95" s="142"/>
-      <c r="AH95" s="142"/>
-      <c r="AI95" s="142"/>
-      <c r="AJ95" s="142"/>
-      <c r="AK95" s="142"/>
-      <c r="AL95" s="142"/>
-      <c r="AM95" s="142"/>
-      <c r="AN95" s="143"/>
+      <c r="V95" s="92"/>
+      <c r="W95" s="92"/>
+      <c r="X95" s="92"/>
+      <c r="Y95" s="92"/>
+      <c r="Z95" s="92"/>
+      <c r="AA95" s="92"/>
+      <c r="AB95" s="92"/>
+      <c r="AC95" s="92"/>
+      <c r="AD95" s="92"/>
+      <c r="AE95" s="92"/>
+      <c r="AF95" s="92"/>
+      <c r="AG95" s="92"/>
+      <c r="AH95" s="92"/>
+      <c r="AI95" s="92"/>
+      <c r="AJ95" s="92"/>
+      <c r="AK95" s="92"/>
+      <c r="AL95" s="92"/>
+      <c r="AM95" s="92"/>
+      <c r="AN95" s="93"/>
     </row>
     <row r="96" spans="1:40" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
@@ -17467,28 +17467,28 @@
       <c r="R96" s="20"/>
       <c r="S96" s="20"/>
       <c r="T96" s="21"/>
-      <c r="U96" s="141" t="s">
+      <c r="U96" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="V96" s="142"/>
-      <c r="W96" s="142"/>
-      <c r="X96" s="142"/>
-      <c r="Y96" s="142"/>
-      <c r="Z96" s="142"/>
-      <c r="AA96" s="142"/>
-      <c r="AB96" s="142"/>
-      <c r="AC96" s="142"/>
-      <c r="AD96" s="142"/>
-      <c r="AE96" s="142"/>
-      <c r="AF96" s="142"/>
-      <c r="AG96" s="142"/>
-      <c r="AH96" s="142"/>
-      <c r="AI96" s="142"/>
-      <c r="AJ96" s="142"/>
-      <c r="AK96" s="142"/>
-      <c r="AL96" s="142"/>
-      <c r="AM96" s="142"/>
-      <c r="AN96" s="143"/>
+      <c r="V96" s="92"/>
+      <c r="W96" s="92"/>
+      <c r="X96" s="92"/>
+      <c r="Y96" s="92"/>
+      <c r="Z96" s="92"/>
+      <c r="AA96" s="92"/>
+      <c r="AB96" s="92"/>
+      <c r="AC96" s="92"/>
+      <c r="AD96" s="92"/>
+      <c r="AE96" s="92"/>
+      <c r="AF96" s="92"/>
+      <c r="AG96" s="92"/>
+      <c r="AH96" s="92"/>
+      <c r="AI96" s="92"/>
+      <c r="AJ96" s="92"/>
+      <c r="AK96" s="92"/>
+      <c r="AL96" s="92"/>
+      <c r="AM96" s="92"/>
+      <c r="AN96" s="93"/>
     </row>
     <row r="97" spans="1:40" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
@@ -17511,28 +17511,28 @@
       <c r="R97" s="20"/>
       <c r="S97" s="20"/>
       <c r="T97" s="21"/>
-      <c r="U97" s="141" t="s">
+      <c r="U97" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="V97" s="142"/>
-      <c r="W97" s="142"/>
-      <c r="X97" s="142"/>
-      <c r="Y97" s="142"/>
-      <c r="Z97" s="142"/>
-      <c r="AA97" s="142"/>
-      <c r="AB97" s="142"/>
-      <c r="AC97" s="142"/>
-      <c r="AD97" s="142"/>
-      <c r="AE97" s="142"/>
-      <c r="AF97" s="142"/>
-      <c r="AG97" s="142"/>
-      <c r="AH97" s="142"/>
-      <c r="AI97" s="142"/>
-      <c r="AJ97" s="142"/>
-      <c r="AK97" s="142"/>
-      <c r="AL97" s="142"/>
-      <c r="AM97" s="142"/>
-      <c r="AN97" s="143"/>
+      <c r="V97" s="92"/>
+      <c r="W97" s="92"/>
+      <c r="X97" s="92"/>
+      <c r="Y97" s="92"/>
+      <c r="Z97" s="92"/>
+      <c r="AA97" s="92"/>
+      <c r="AB97" s="92"/>
+      <c r="AC97" s="92"/>
+      <c r="AD97" s="92"/>
+      <c r="AE97" s="92"/>
+      <c r="AF97" s="92"/>
+      <c r="AG97" s="92"/>
+      <c r="AH97" s="92"/>
+      <c r="AI97" s="92"/>
+      <c r="AJ97" s="92"/>
+      <c r="AK97" s="92"/>
+      <c r="AL97" s="92"/>
+      <c r="AM97" s="92"/>
+      <c r="AN97" s="93"/>
     </row>
     <row r="98" spans="1:40" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
@@ -17600,51 +17600,51 @@
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
       <c r="T99" s="15"/>
-      <c r="U99" s="141" t="s">
+      <c r="U99" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="V99" s="142"/>
-      <c r="W99" s="142"/>
-      <c r="X99" s="142"/>
-      <c r="Y99" s="142"/>
-      <c r="Z99" s="142"/>
-      <c r="AA99" s="142"/>
-      <c r="AB99" s="142"/>
-      <c r="AC99" s="142"/>
-      <c r="AD99" s="142"/>
-      <c r="AE99" s="142"/>
-      <c r="AF99" s="142"/>
-      <c r="AG99" s="142"/>
-      <c r="AH99" s="142"/>
-      <c r="AI99" s="142"/>
-      <c r="AJ99" s="142"/>
-      <c r="AK99" s="142"/>
-      <c r="AL99" s="142"/>
-      <c r="AM99" s="142"/>
-      <c r="AN99" s="143"/>
+      <c r="V99" s="92"/>
+      <c r="W99" s="92"/>
+      <c r="X99" s="92"/>
+      <c r="Y99" s="92"/>
+      <c r="Z99" s="92"/>
+      <c r="AA99" s="92"/>
+      <c r="AB99" s="92"/>
+      <c r="AC99" s="92"/>
+      <c r="AD99" s="92"/>
+      <c r="AE99" s="92"/>
+      <c r="AF99" s="92"/>
+      <c r="AG99" s="92"/>
+      <c r="AH99" s="92"/>
+      <c r="AI99" s="92"/>
+      <c r="AJ99" s="92"/>
+      <c r="AK99" s="92"/>
+      <c r="AL99" s="92"/>
+      <c r="AM99" s="92"/>
+      <c r="AN99" s="93"/>
     </row>
     <row r="100" spans="1:40" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
-      <c r="C100" s="136" t="s">
+      <c r="C100" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D100" s="136"/>
-      <c r="E100" s="136"/>
-      <c r="F100" s="136"/>
-      <c r="G100" s="136"/>
-      <c r="H100" s="136"/>
-      <c r="I100" s="136"/>
-      <c r="J100" s="136"/>
-      <c r="K100" s="136"/>
-      <c r="L100" s="136"/>
-      <c r="M100" s="136"/>
-      <c r="N100" s="136"/>
-      <c r="O100" s="136"/>
-      <c r="P100" s="136"/>
-      <c r="Q100" s="136"/>
-      <c r="R100" s="136"/>
-      <c r="S100" s="136"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="86"/>
+      <c r="I100" s="86"/>
+      <c r="J100" s="86"/>
+      <c r="K100" s="86"/>
+      <c r="L100" s="86"/>
+      <c r="M100" s="86"/>
+      <c r="N100" s="86"/>
+      <c r="O100" s="86"/>
+      <c r="P100" s="86"/>
+      <c r="Q100" s="86"/>
+      <c r="R100" s="86"/>
+      <c r="S100" s="86"/>
       <c r="T100" s="20"/>
       <c r="U100" s="31"/>
       <c r="V100" s="32"/>
@@ -17670,25 +17670,25 @@
     <row r="101" spans="1:40" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="137" t="s">
+      <c r="C101" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="137"/>
-      <c r="E101" s="137"/>
-      <c r="F101" s="137"/>
-      <c r="G101" s="137"/>
-      <c r="H101" s="137"/>
-      <c r="I101" s="137"/>
-      <c r="J101" s="137"/>
-      <c r="K101" s="137"/>
-      <c r="L101" s="137"/>
-      <c r="M101" s="137"/>
-      <c r="N101" s="137"/>
-      <c r="O101" s="137"/>
-      <c r="P101" s="137"/>
-      <c r="Q101" s="137"/>
-      <c r="R101" s="137"/>
-      <c r="S101" s="137"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="87"/>
+      <c r="H101" s="87"/>
+      <c r="I101" s="87"/>
+      <c r="J101" s="87"/>
+      <c r="K101" s="87"/>
+      <c r="L101" s="87"/>
+      <c r="M101" s="87"/>
+      <c r="N101" s="87"/>
+      <c r="O101" s="87"/>
+      <c r="P101" s="87"/>
+      <c r="Q101" s="87"/>
+      <c r="R101" s="87"/>
+      <c r="S101" s="87"/>
       <c r="T101" s="13"/>
       <c r="U101" s="12"/>
       <c r="V101" s="13"/>
@@ -17697,16 +17697,16 @@
       <c r="Y101" s="26">
         <v>56</v>
       </c>
-      <c r="Z101" s="135"/>
-      <c r="AA101" s="135"/>
-      <c r="AB101" s="135"/>
-      <c r="AC101" s="135"/>
-      <c r="AD101" s="135"/>
-      <c r="AE101" s="135"/>
-      <c r="AF101" s="135"/>
-      <c r="AG101" s="135"/>
-      <c r="AH101" s="135"/>
-      <c r="AI101" s="135"/>
+      <c r="Z101" s="85"/>
+      <c r="AA101" s="85"/>
+      <c r="AB101" s="85"/>
+      <c r="AC101" s="85"/>
+      <c r="AD101" s="85"/>
+      <c r="AE101" s="85"/>
+      <c r="AF101" s="85"/>
+      <c r="AG101" s="85"/>
+      <c r="AH101" s="85"/>
+      <c r="AI101" s="85"/>
       <c r="AJ101" s="13"/>
       <c r="AK101" s="13"/>
       <c r="AL101" s="13"/>
@@ -17734,28 +17734,28 @@
       <c r="R102" s="17"/>
       <c r="S102" s="17"/>
       <c r="T102" s="17"/>
-      <c r="U102" s="132" t="s">
+      <c r="U102" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="V102" s="133"/>
-      <c r="W102" s="133"/>
-      <c r="X102" s="133"/>
-      <c r="Y102" s="133"/>
-      <c r="Z102" s="133"/>
-      <c r="AA102" s="133"/>
-      <c r="AB102" s="133"/>
-      <c r="AC102" s="133"/>
-      <c r="AD102" s="133"/>
-      <c r="AE102" s="133"/>
-      <c r="AF102" s="133"/>
-      <c r="AG102" s="133"/>
-      <c r="AH102" s="133"/>
-      <c r="AI102" s="133"/>
-      <c r="AJ102" s="133"/>
-      <c r="AK102" s="133"/>
-      <c r="AL102" s="133"/>
-      <c r="AM102" s="133"/>
-      <c r="AN102" s="134"/>
+      <c r="V102" s="83"/>
+      <c r="W102" s="83"/>
+      <c r="X102" s="83"/>
+      <c r="Y102" s="83"/>
+      <c r="Z102" s="83"/>
+      <c r="AA102" s="83"/>
+      <c r="AB102" s="83"/>
+      <c r="AC102" s="83"/>
+      <c r="AD102" s="83"/>
+      <c r="AE102" s="83"/>
+      <c r="AF102" s="83"/>
+      <c r="AG102" s="83"/>
+      <c r="AH102" s="83"/>
+      <c r="AI102" s="83"/>
+      <c r="AJ102" s="83"/>
+      <c r="AK102" s="83"/>
+      <c r="AL102" s="83"/>
+      <c r="AM102" s="83"/>
+      <c r="AN102" s="84"/>
     </row>
     <row r="103" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
@@ -17912,39 +17912,55 @@
     <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="C90:S90"/>
-    <mergeCell ref="A93:AN93"/>
-    <mergeCell ref="U94:AN94"/>
-    <mergeCell ref="Y91:AB92"/>
-    <mergeCell ref="U102:AN102"/>
-    <mergeCell ref="Z101:AI101"/>
-    <mergeCell ref="C100:S100"/>
-    <mergeCell ref="C101:S101"/>
-    <mergeCell ref="A94:T94"/>
-    <mergeCell ref="U95:AN95"/>
-    <mergeCell ref="U96:AN96"/>
-    <mergeCell ref="U97:AN97"/>
-    <mergeCell ref="U99:AN99"/>
-    <mergeCell ref="A82:AN82"/>
-    <mergeCell ref="A83:AN83"/>
-    <mergeCell ref="A84:AN84"/>
-    <mergeCell ref="C87:S87"/>
-    <mergeCell ref="U73:V74"/>
-    <mergeCell ref="U75:V76"/>
-    <mergeCell ref="U77:U81"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B77:L78"/>
-    <mergeCell ref="B79:L79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:L81"/>
-    <mergeCell ref="B71:L72"/>
-    <mergeCell ref="B75:L76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A2:AN2"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="A4:AN4"/>
+    <mergeCell ref="Y86:AB87"/>
+    <mergeCell ref="Y89:AB90"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="N49:S50"/>
+    <mergeCell ref="H49:K50"/>
+    <mergeCell ref="B49:F50"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:T40"/>
+    <mergeCell ref="A51:T51"/>
+    <mergeCell ref="A60:T60"/>
+    <mergeCell ref="M5:AB8"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U13:AN13"/>
+    <mergeCell ref="U14:AG15"/>
+    <mergeCell ref="AH14:AN15"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="A35:T37"/>
+    <mergeCell ref="U30:U32"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="V30:AF32"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:AG19"/>
+    <mergeCell ref="A22:P23"/>
+    <mergeCell ref="Q22:T23"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="V20:AF22"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:AF25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:AF27"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:AF29"/>
+    <mergeCell ref="A32:T34"/>
+    <mergeCell ref="V33:AG35"/>
+    <mergeCell ref="U36:U38"/>
+    <mergeCell ref="V36:AF38"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U41:AN42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:AF44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="V45:AF46"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="V47:AF49"/>
+    <mergeCell ref="V50:AF51"/>
     <mergeCell ref="U52:U53"/>
     <mergeCell ref="V52:AF53"/>
     <mergeCell ref="U55:V56"/>
@@ -17961,55 +17977,39 @@
     <mergeCell ref="V64:AF65"/>
     <mergeCell ref="V66:AF67"/>
     <mergeCell ref="V68:AF69"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="V45:AF46"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="U50:U51"/>
-    <mergeCell ref="V47:AF49"/>
-    <mergeCell ref="V50:AF51"/>
-    <mergeCell ref="U36:U38"/>
-    <mergeCell ref="V36:AF38"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U41:AN42"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:AF44"/>
-    <mergeCell ref="V26:AF27"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:AF29"/>
-    <mergeCell ref="A32:T34"/>
-    <mergeCell ref="V33:AG35"/>
-    <mergeCell ref="U14:AG15"/>
-    <mergeCell ref="AH14:AN15"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="A35:T37"/>
-    <mergeCell ref="U30:U32"/>
-    <mergeCell ref="U33:U35"/>
-    <mergeCell ref="V30:AF32"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:AG19"/>
-    <mergeCell ref="A22:P23"/>
-    <mergeCell ref="Q22:T23"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="V20:AF22"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:AF25"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="A2:AN2"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="A4:AN4"/>
-    <mergeCell ref="Y86:AB87"/>
-    <mergeCell ref="Y89:AB90"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="N49:S50"/>
-    <mergeCell ref="H49:K50"/>
-    <mergeCell ref="B49:F50"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:T40"/>
-    <mergeCell ref="A51:T51"/>
-    <mergeCell ref="A60:T60"/>
-    <mergeCell ref="M5:AB8"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U13:AN13"/>
+    <mergeCell ref="B71:L72"/>
+    <mergeCell ref="B75:L76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A82:AN82"/>
+    <mergeCell ref="A83:AN83"/>
+    <mergeCell ref="A84:AN84"/>
+    <mergeCell ref="C87:S87"/>
+    <mergeCell ref="U73:V74"/>
+    <mergeCell ref="U75:V76"/>
+    <mergeCell ref="U77:U81"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B77:L78"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:L81"/>
+    <mergeCell ref="C90:S90"/>
+    <mergeCell ref="A93:AN93"/>
+    <mergeCell ref="U94:AN94"/>
+    <mergeCell ref="Y91:AB92"/>
+    <mergeCell ref="U102:AN102"/>
+    <mergeCell ref="Z101:AI101"/>
+    <mergeCell ref="C100:S100"/>
+    <mergeCell ref="C101:S101"/>
+    <mergeCell ref="A94:T94"/>
+    <mergeCell ref="U95:AN95"/>
+    <mergeCell ref="U96:AN96"/>
+    <mergeCell ref="U97:AN97"/>
+    <mergeCell ref="U99:AN99"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0" top="0.15748031496062992" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="90" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
